--- a/biology/Zoologie/Argidae/Argidae.xlsx
+++ b/biology/Zoologie/Argidae/Argidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Argidae forment une famille d'insectes hyménoptères symphytes qui sont proches des guêpes. Avec plus de 900 espèces et 59 genres, cette famille est la seconde plus diversifiée des symphytes (après les Tenthredinidae)[1]. Les larves sont phytophages et se nourrissent principalement de feuilles. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Argidae forment une famille d'insectes hyménoptères symphytes qui sont proches des guêpes. Avec plus de 900 espèces et 59 genres, cette famille est la seconde plus diversifiée des symphytes (après les Tenthredinidae). Les larves sont phytophages et se nourrissent principalement de feuilles. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille se caractérise notamment par des antennes constituées de trois articles, dont le dernier est nettement plus long que les autres. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que cosmopolite, aucune espèce n'a été trouvée en Antarctique, à Madagascar, au Groenland et en Nouvelle-Zélande. Une part importante se retrouve dans l'hémisphère sud, contrairement aux autres mouches à scies[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que cosmopolite, aucune espèce n'a été trouvée en Antarctique, à Madagascar, au Groenland et en Nouvelle-Zélande. Une part importante se retrouve dans l'hémisphère sud, contrairement aux autres mouches à scies. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification a été jusqu'à récemment peu comprise et aucune classification phylogénétique n'a été proposée[2]. On considère qu'il existe deux sous-familles aux Argidae, formant un clade monophylétique : les Arginae et les Sterictiphorinae[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification a été jusqu'à récemment peu comprise et aucune classification phylogénétique n'a été proposée. On considère qu'il existe deux sous-familles aux Argidae, formant un clade monophylétique : les Arginae et les Sterictiphorinae.
 Au sein des Arginae, on retrouve notamment les Antargidium, Scobina, Athermantini, Arge et Spinarge. Chez les Sterictiphorinae, on retrouve les Atomacera, les Trichorhachini, les Sterictiphora et les Inga. 
 </t>
         </is>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 août 2016)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 août 2016) :
 Antargidium
 Aproceros
 Aprosthema
